--- a/media/resume_import.xlsx
+++ b/media/resume_import.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -134,13 +134,31 @@
     <t>Петр</t>
   </si>
   <si>
-    <t>Краснодарский край</t>
-  </si>
-  <si>
-    <t>Краснодар</t>
-  </si>
-  <si>
     <t>sdwa@fa.pa</t>
+  </si>
+  <si>
+    <t>Степанова</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Петровна</t>
+  </si>
+  <si>
+    <t>asdaw@aw.ty</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>dwafw@aw.ya</t>
   </si>
 </sst>
 </file>
@@ -148,9 +166,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -177,8 +195,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +218,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +250,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,9 +265,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,68 +295,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,55 +339,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,121 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,15 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,32 +542,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,150 +595,171 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -754,8 +772,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1103,13 +1122,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1306,22 +1325,76 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
       </c>
       <c r="G8">
         <v>341241</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>412121</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>12125</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H8" r:id="rId1" display="sdwa@fa.pa"/>
+    <hyperlink ref="H9" r:id="rId2" display="asdaw@aw.ty"/>
+    <hyperlink ref="H10" r:id="rId3" display="dwafw@aw.ya"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/media/resume_import.xlsx
+++ b/media/resume_import.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -92,6 +92,12 @@
     <t>Сергеевич</t>
   </si>
   <si>
+    <t>Ростовская область</t>
+  </si>
+  <si>
+    <t>Ростов</t>
+  </si>
+  <si>
     <t>1241512</t>
   </si>
   <si>
@@ -120,6 +126,12 @@
   </si>
   <si>
     <t>Sergey</t>
+  </si>
+  <si>
+    <t>Краснодарский край</t>
+  </si>
+  <si>
+    <t>Краснодар</t>
   </si>
   <si>
     <t>212511</t>
@@ -167,8 +179,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -195,16 +207,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,14 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +322,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,60 +330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,181 +351,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,26 +539,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,21 +602,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -595,31 +613,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -627,139 +639,139 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -775,7 +787,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,7 +1137,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="7"/>
@@ -1247,17 +1259,17 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1265,13 +1277,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1280,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1291,25 +1303,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1317,10 +1329,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1335,7 +1347,7 @@
         <v>341241</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1343,13 +1355,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1361,7 +1373,7 @@
         <v>412121</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1369,13 +1381,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1387,7 +1399,7 @@
         <v>12125</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
